--- a/DateBase/orders/Nhat 48_2025-12-28.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-28.xlsx
@@ -751,6 +751,9 @@
       <c r="G2" t="str">
         <v>03010510203020103021303015531515151571610158152015158</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
